--- a/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/SYBB_sum_stat.xlsx
+++ b/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/SYBB_sum_stat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,262 +482,291 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.023221350344029e-05</v>
+        <v>0.0001042068187063385</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.961606494261693e-05</v>
+        <v>2.907159979914642e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003413603704123044</v>
+        <v>0.00339909650758996</v>
       </c>
       <c r="D2" t="n">
-        <v>1.165269024880256e-05</v>
+        <v>1.155385706791027e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.009731642725557377</v>
+        <v>-0.01099081425830439</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.002403817997531033</v>
+        <v>-0.002215955502921502</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.961606494261693e-05</v>
+        <v>2.907159979914642e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002200802962555593</v>
+        <v>0.002379277169524185</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01035627419433416</v>
+        <v>0.01175573685394893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0001768011313090286</v>
+        <v>-2.023221350344029e-05</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.092877354789804e-05</v>
+        <v>-2.961606494261693e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003450169345198887</v>
+        <v>0.003413603704123043</v>
       </c>
       <c r="D3" t="n">
-        <v>1.190366851055012e-05</v>
+        <v>1.165269024880256e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01249766104270555</v>
+        <v>-0.009731642725557377</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.002589684199448994</v>
+        <v>-0.002403817997531033</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.092877354789804e-05</v>
+        <v>-2.961606494261693e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002261798874245713</v>
+        <v>0.002200802962555593</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009603330865458837</v>
+        <v>0.01035627419433416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.824868053775532e-05</v>
+        <v>-0.0001768011313090286</v>
       </c>
       <c r="B4" t="n">
-        <v>5.27119816783328e-05</v>
+        <v>-5.092877354789804e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003407140832674853</v>
+        <v>0.003450169345198887</v>
       </c>
       <c r="D4" t="n">
-        <v>1.160860865368029e-05</v>
+        <v>1.190366851055012e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01148287958580341</v>
+        <v>-0.01249766104270555</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002305241386744733</v>
+        <v>-0.002589684199448994</v>
       </c>
       <c r="G4" t="n">
-        <v>5.27119816783328e-05</v>
+        <v>-5.092877354789804e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002511382433777132</v>
+        <v>0.002261798874245713</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009830047537276787</v>
+        <v>0.009603330865458837</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0001537117041032662</v>
+        <v>3.824868053775532e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0002015829109578426</v>
+        <v>5.27119816783328e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003386512892675548</v>
+        <v>0.003407140832674853</v>
       </c>
       <c r="D5" t="n">
-        <v>1.14684695722577e-05</v>
+        <v>1.160860865368029e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0102741596245729</v>
+        <v>-0.01148287958580341</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002363837309553585</v>
+        <v>-0.002305241386744733</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0002015829109578426</v>
+        <v>5.27119816783328e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002237095824401957</v>
+        <v>0.002511382433777132</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01220958318279264</v>
+        <v>0.009830047537276787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0001038543442677194</v>
+        <v>-0.0001537117041032662</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001097492271301959</v>
+        <v>-0.0002015829109578426</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003469243333043285</v>
+        <v>0.003386512892675548</v>
       </c>
       <c r="D6" t="n">
-        <v>1.203564930386528e-05</v>
+        <v>1.14684695722577e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01107557039368701</v>
+        <v>-0.0102741596245729</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.002494812327260759</v>
+        <v>-0.002363837309553585</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0001097492271301959</v>
+        <v>-0.0002015829109578426</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002284400282141774</v>
+        <v>0.002237095824401957</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01046853470530085</v>
+        <v>0.01220958318279264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0001702306918891889</v>
+        <v>-0.0001038543442677194</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0002930637324831675</v>
+        <v>-0.0001097492271301959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00332379911708107</v>
+        <v>0.003469243333043285</v>
       </c>
       <c r="D7" t="n">
-        <v>1.10476405707089e-05</v>
+        <v>1.203564930386528e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.008449291248903923</v>
+        <v>-0.01107557039368701</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002150201115446976</v>
+        <v>-0.002494812327260759</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002930637324831675</v>
+        <v>-0.0001097492271301959</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002472980840220906</v>
+        <v>0.002284400282141774</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01381295392134807</v>
+        <v>0.01046853470530085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0001205145899322166</v>
+        <v>0.0001702306918891889</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.757807788932869e-05</v>
+        <v>0.0002930637324831675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00356891658124126</v>
+        <v>0.00332379911708107</v>
       </c>
       <c r="D8" t="n">
-        <v>1.27371655638588e-05</v>
+        <v>1.10476405707089e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01183853120093226</v>
+        <v>-0.008449291248903923</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.002557669803506135</v>
+        <v>-0.002150201115446976</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.757807788932869e-05</v>
+        <v>0.0002930637324831675</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002314009644834858</v>
+        <v>0.002472980840220906</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01423236837726716</v>
+        <v>0.01381295392134807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.507805853315872e-05</v>
+        <v>-0.0001205145899322166</v>
       </c>
       <c r="B9" t="n">
-        <v>1.605917699110115e-05</v>
+        <v>-7.757807788932869e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003465550397381289</v>
+        <v>0.00356891658124126</v>
       </c>
       <c r="D9" t="n">
-        <v>1.201003955678961e-05</v>
+        <v>1.27371655638588e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0100562817085722</v>
+        <v>-0.01183853120093226</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002395444427980703</v>
+        <v>-0.002557669803506135</v>
       </c>
       <c r="G9" t="n">
-        <v>1.605917699110115e-05</v>
+        <v>-7.757807788932869e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00248933213761926</v>
+        <v>0.002314009644834858</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01392924098152881</v>
+        <v>0.01423236837726716</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>5.507805853315872e-05</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.605917699110115e-05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003465550397381289</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.201003955678961e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.0100562817085722</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.002395444427980703</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.605917699110115e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00248933213761926</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01392924098152881</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>0.0001060513151416333</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>3.372252101252471e-05</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.003334508844275631</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C11" t="n">
+        <v>0.00333450884427563</v>
+      </c>
+      <c r="D11" t="n">
         <v>1.11189492325524e-05</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>-0.01037549840063234</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>-0.002171319807007132</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>3.372252101252471e-05</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>0.002482766569745664</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.01081000377240149</v>
       </c>
     </row>
